--- a/data/input/absenteeism_data_49.xlsx
+++ b/data/input/absenteeism_data_49.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38258</v>
+        <v>29369</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valentina Ribeiro</t>
+          <t>Davi Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>9167.15</v>
+        <v>5398.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11959</v>
+        <v>69892</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emanuel Ferreira</t>
+          <t>Ana Clara Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>6242.6</v>
+        <v>10663.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79155</v>
+        <v>7934</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. Pedro Miguel Farias</t>
+          <t>Maria Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,60 +548,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>10137.41</v>
+        <v>5830.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21770</v>
+        <v>87861</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. João Lucas Lima</t>
+          <t>Alexia da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5304.02</v>
+        <v>10381.62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85580</v>
+        <v>53511</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Dias</t>
+          <t>Cauã da Cruz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,85 +610,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>9865.860000000001</v>
+        <v>9708.629999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64684</v>
+        <v>44531</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Clara Rezende</t>
+          <t>Francisco Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>10137.81</v>
+        <v>11184.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60337</v>
+        <v>38180</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa Pires</t>
+          <t>Nicole Carvalho</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>11989.94</v>
+        <v>10717.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77461</v>
+        <v>99138</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Cauê Peixoto</t>
+          <t>Pietro da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>10791.32</v>
+        <v>4356.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60518</v>
+        <v>88994</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isabelly Sales</t>
+          <t>Nicolas Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>4118.51</v>
+        <v>5397.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88437</v>
+        <v>73040</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pedro Fernandes</t>
+          <t>Cauã da Mata</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>3071.76</v>
+        <v>6115.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_49.xlsx
+++ b/data/input/absenteeism_data_49.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29369</v>
+        <v>52263</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Carvalho</t>
+          <t>Davi Lucca Almeida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>5398.91</v>
+        <v>3860.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69892</v>
+        <v>70366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara Viana</t>
+          <t>Amanda Silva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>10663.81</v>
+        <v>6129.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7934</v>
+        <v>67991</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Gonçalves</t>
+          <t>Ian Peixoto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>5830.61</v>
+        <v>10469.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87861</v>
+        <v>86743</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia da Cunha</t>
+          <t>Laura Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,135 +584,135 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>10381.62</v>
+        <v>11436.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>53511</v>
+        <v>84932</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cauã da Cruz</t>
+          <t>Sr. Enrico Porto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>9708.629999999999</v>
+        <v>9200.530000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44531</v>
+        <v>80652</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Francisco Lima</t>
+          <t>Clarice Santos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>11184.19</v>
+        <v>3835.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38180</v>
+        <v>51237</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicole Carvalho</t>
+          <t>Paulo Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>10717.61</v>
+        <v>8656.030000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99138</v>
+        <v>80806</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietro da Mata</t>
+          <t>Henrique da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>4356.74</v>
+        <v>9084.110000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88994</v>
+        <v>32143</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nicolas Moura</t>
+          <t>Sra. Maria Vitória Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>5397.26</v>
+        <v>3605.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73040</v>
+        <v>7325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cauã da Mata</t>
+          <t>Lucas Mendes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>6115.02</v>
+        <v>3377.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_49.xlsx
+++ b/data/input/absenteeism_data_49.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52263</v>
+        <v>86208</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucca Almeida</t>
+          <t>Emilly Mendes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,109 +494,109 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>3860.36</v>
+        <v>2924.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70366</v>
+        <v>82343</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanda Silva</t>
+          <t>João Felipe Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>6129.06</v>
+        <v>4373.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>67991</v>
+        <v>32682</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ian Peixoto</t>
+          <t>Sra. Maria Vitória Martins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45097</v>
       </c>
       <c r="G4" t="n">
-        <v>10469.68</v>
+        <v>7801.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86743</v>
+        <v>96803</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laura Cardoso</t>
+          <t>Dr. Carlos Eduardo da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>11436.88</v>
+        <v>10772.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84932</v>
+        <v>86350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Enrico Porto</t>
+          <t>Alexia Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>9200.530000000001</v>
+        <v>11044.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80652</v>
+        <v>16429</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clarice Santos</t>
+          <t>Benício Rodrigues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>3835.08</v>
+        <v>4135.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>51237</v>
+        <v>2245</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paulo Moraes</t>
+          <t>Luna Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>8656.030000000001</v>
+        <v>11727.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80806</v>
+        <v>72871</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Henrique da Rocha</t>
+          <t>Rafaela Farias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>9084.110000000001</v>
+        <v>6144.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32143</v>
+        <v>52155</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Maria Vitória Martins</t>
+          <t>Erick Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>3605.29</v>
+        <v>2749.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7325</v>
+        <v>73339</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucas Mendes</t>
+          <t>Thales Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="G11" t="n">
-        <v>3377.52</v>
+        <v>6724.56</v>
       </c>
     </row>
   </sheetData>
